--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t>Categoría de algún plan de salud, como médico o de accidente</t>
+    <t>Tipo de previsión de salud</t>
   </si>
   <si>
     <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
@@ -560,7 +560,7 @@
     <t>The order of application of coverages is dependent on the types of coverage.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCoverageTypeCode</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSPrevisionCodigo</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -614,7 +614,7 @@
 </t>
   </si>
   <si>
-    <t>Codigo definido por un sistema terminológico</t>
+    <t>Code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -644,7 +644,7 @@
     <t>Coverage.type.coding.system</t>
   </si>
   <si>
-    <t>Identidad del sistema terminológico</t>
+    <t>Identity of the terminology system</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -689,16 +689,13 @@
     <t>Coverage.type.coding.code</t>
   </si>
   <si>
-    <t>Código definido en un sistema terminológico</t>
+    <t>Symbol in syntax defined by the system</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>HIP</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -943,10 +940,6 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
     <t>Issuer of the policy</t>
   </si>
   <si>
@@ -979,7 +972,7 @@
 </t>
   </si>
   <si>
-    <t>Clasificaciones adicionales</t>
+    <t>Additional coverage classifications</t>
   </si>
   <si>
     <t>A suite of underwriter specific classifiers.</t>
@@ -1017,7 +1010,7 @@
     <t>Coverage.class.type</t>
   </si>
   <si>
-    <t>Tipo de previsión</t>
+    <t>Type of class such as 'group' or 'plan'</t>
   </si>
   <si>
     <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.</t>
@@ -1026,46 +1019,10 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSPrevisionCodigo</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.id</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.extension</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding</t>
-  </si>
-  <si>
-    <t>Codigos definidos por un sistema terminológico</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.id</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.system</t>
-  </si>
-  <si>
-    <t>Sistema terminológico, url/uri/uuid</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.version</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.code</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.display</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.text</t>
+    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
   </si>
   <si>
     <t>Coverage.class.value</t>
@@ -1605,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP66"/>
+  <dimension ref="A1:AP55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3478,13 +3435,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3844,7 +3801,7 @@
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -4080,13 +4037,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -4115,46 +4072,46 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4172,16 +4129,16 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4189,10 +4146,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4218,14 +4175,14 @@
         <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4274,7 +4231,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4292,16 +4249,16 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4309,10 +4266,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4335,19 +4292,19 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4396,7 +4353,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4414,16 +4371,16 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4431,10 +4388,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4460,16 +4417,16 @@
         <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4518,7 +4475,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4536,16 +4493,16 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4553,10 +4510,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4579,19 +4536,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4640,7 +4597,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4661,24 +4618,24 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4701,19 +4658,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4762,7 +4719,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4783,24 +4740,24 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4826,14 +4783,14 @@
         <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4882,7 +4839,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4903,24 +4860,24 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4943,17 +4900,17 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5002,7 +4959,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5017,30 +4974,30 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5066,16 +5023,16 @@
         <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5124,7 +5081,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5148,10 +5105,10 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5159,10 +5116,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5188,16 +5145,16 @@
         <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5222,14 +5179,14 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5246,7 +5203,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5270,7 +5227,7 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5281,10 +5238,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5307,17 +5264,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5366,7 +5323,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5381,19 +5338,19 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -5401,10 +5358,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5427,19 +5384,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5488,7 +5445,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>89</v>
@@ -5509,24 +5466,24 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5540,7 +5497,7 @@
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -5549,19 +5506,19 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5610,7 +5567,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5645,10 +5602,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5763,10 +5720,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5883,14 +5840,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5912,10 +5869,10 @@
         <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>138</v>
@@ -5970,7 +5927,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6005,10 +5962,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6022,7 +5979,7 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6034,14 +5991,14 @@
         <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6066,11 +6023,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6047,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>89</v>
@@ -6123,10 +6082,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6134,7 +6093,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6146,19 +6105,23 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6206,10 +6169,10 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -6218,44 +6181,44 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6264,21 +6227,21 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6314,57 +6277,57 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>189</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6375,10 +6338,10 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>79</v>
@@ -6387,19 +6350,17 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6448,13 +6409,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6466,7 +6427,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6475,7 +6436,7 @@
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6483,10 +6444,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6506,19 +6467,21 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6566,7 +6529,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6578,19 +6541,19 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6601,14 +6564,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>134</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6627,18 +6590,20 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6674,19 +6639,19 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>189</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6698,13 +6663,13 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6721,10 +6686,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6738,29 +6703,25 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6808,7 +6769,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6820,13 +6781,13 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6835,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -6843,21 +6804,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6866,19 +6827,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6928,25 +6889,25 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6955,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -6963,43 +6924,45 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7048,25 +7011,25 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7075,7 +7038,7 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7083,10 +7046,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7109,17 +7072,19 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7144,13 +7109,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7168,7 +7133,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7186,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7195,7 +7160,7 @@
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7203,10 +7168,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7214,7 +7179,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7229,19 +7194,19 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7290,10 +7255,10 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>89</v>
@@ -7308,27 +7273,27 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7339,7 +7304,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7348,22 +7313,20 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7412,13 +7375,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>245</v>
+        <v>370</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7430,7 +7393,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7439,7 +7402,7 @@
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -7447,10 +7410,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7458,7 +7421,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7470,23 +7433,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>179</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>180</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7534,10 +7493,10 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>89</v>
@@ -7546,44 +7505,44 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7592,21 +7551,21 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7654,78 +7613,80 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>353</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>356</v>
+        <v>144</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7774,25 +7735,25 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7801,7 +7762,7 @@
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -7809,10 +7770,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7820,7 +7781,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -7835,17 +7796,17 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7870,13 +7831,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7894,10 +7855,10 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>89</v>
@@ -7918,7 +7879,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -7929,21 +7890,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7952,22 +7913,20 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8016,13 +7975,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8051,10 +8010,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8077,16 +8036,20 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>180</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8134,7 +8097,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>182</v>
+        <v>387</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8146,13 +8109,13 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8169,14 +8132,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8195,18 +8158,18 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>136</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8254,7 +8217,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>189</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8266,7 +8229,7 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8278,1345 +8241,17 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP66">
+  <autoFilter ref="A1:AP55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9626,7 +8261,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CoverageLE.xlsx
+++ b/StructureDefinition-CoverageLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
